--- a/data/hotels_by_city/Dallas/Dallas_shard_539.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_539.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="467">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1313 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r575297684-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>56280</t>
+  </si>
+  <si>
+    <t>226040</t>
+  </si>
+  <si>
+    <t>575297684</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Would not recommend!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clerk try to charge extra fees at check-in for a refrigerator and a microwave.  After I refused to pay extra, he offered these items again at a lesser up-charge.  Again I refused and ask him to wait while I looked up my reservations to see if I was suppose to get these items.  He then offered them to be for free but I had to stay upstairs and there was no elevator.  The room was small, but for the price it was fair.  The breakfast was very poor.  </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r572914293-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>572914293</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Rooms EXTREMELY STUFFY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room smelled old, not fresh.... Towels were VERY thin. I had to go to Walmart to get air freshener and febreeze. After all the air Freshener i was able to stay. I asked for another room and was told that’s what i paid for. I let it go but i wanted to say, you can’t smell rooms over the Internet! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r572291720-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>572291720</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Bad Hotel and attitude Employees</t>
+  </si>
+  <si>
+    <t>Yes upon checking into my room I observed the sheetings on my bed was burnt cigarettes marks n holes three of them and I complained several about I want to change rooms they refused to so I immediately call customer service file complaint also later that night ice machine and pop machine wasn't working and I had business paperwork to fax too my job I went downstairs ask too fax things one guy India with glasses refuse to fax saying it's broke then he said only two pages he fax I also ask him for manager never around for my entire two nights stay. This hotel and it's employees has nasty attitudes and need to clean up and get everything fixed and working properly and also on there website it says they offer faxing services but they refuse to assist me I would never recommend this hotel too anybody.April 7-9, 2018 MoreShow less</t>
+  </si>
+  <si>
+    <t>Yes upon checking into my room I observed the sheetings on my bed was burnt cigarettes marks n holes three of them and I complained several about I want to change rooms they refused to so I immediately call customer service file complaint also later that night ice machine and pop machine wasn't working and I had business paperwork to fax too my job I went downstairs ask too fax things one guy India with glasses refuse to fax saying it's broke then he said only two pages he fax I also ask him for manager never around for my entire two nights stay. This hotel and it's employees has nasty attitudes and need to clean up and get everything fixed and working properly and also on there website it says they offer faxing services but they refuse to assist me I would never recommend this hotel too anybody.April 7-9, 2018 More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r568101524-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>568101524</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r566290866-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>566290866</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Ok stay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The front deck manager got under my skin, he asked me three time not to smoke in the room after I told him I'm a non smoker. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r556581576-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>556581576</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>its a place where you take your side chick not the family</t>
+  </si>
+  <si>
+    <t>this hotel is a place to take your side chick not your family,  the rooms are dark and nasty with a large mirror over the beds. please bring your own sheets and never walk around without shoes on your feet this includes while taking a shower.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r544831490-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>544831490</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r543422485-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>543422485</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r536043408-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>536043408</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Stay Away!!!</t>
+  </si>
+  <si>
+    <t>One of the worst places I’ve ever stayed in. It was dirty, there were insects in the room, and it smelled like the AC unit was full of mold. I booked it through Wyndham’s app where it said checkout was at noon. At eleven am, the front desk called my room and said I need to check out now if I wasn’t staying another night. If you’re wondering if the cheap price is worth it, it’s not!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r530262545-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>530262545</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r528800918-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>528800918</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r526051802-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>526051802</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r521797632-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>521797632</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r510629222-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>510629222</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Didn't like that much</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small rooms, no micro-wave or fridge. tub drain didn't work right and the shower curtain didn't keep in any water so after shower the whole floor was wet. the breakfast was just a few bad looking muffins and some cereal. had to go back to office twice to get my key card to work right. </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r508519781-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>508519781</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>not a happy camper, but I tried it</t>
+  </si>
+  <si>
+    <t>I was disappointed with this Wyndham property.  Outside looks ok.  But inside needs a lot of work.  The foyer has carpet with cigarette smoke in it.  It appears a family runs the property.  This fine but use uniforms and make a professional appearance, not clothes from home with sandals.  Make coffee more than a home coffee pot at a time.  Breakfast was from Sam's. The room has ants coming in from the AC.  The bathroom had a broken corner which is a hazard.  It took 4 attempts to run our credit card.  I will never stay at a Microtel again.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r503328793-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>503328793</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>2nd Visit....EQUALLY AWESOME!!!</t>
+  </si>
+  <si>
+    <t>Extremely friendly staff and very very clean rooms. I stayed for multiple nights and thoroughly enjoyed my stay. I loved the coffee in the morning. I had booked  a suite and the room was very spacious. It really felt like a home away from home. I cannot wait to come back. For a budget traveler, this is the ultimate destination. I would like to extend my gratitude to the staff for such a fruitful and refreshing stay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r500518031-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>500518031</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Uncaring and false advertising.</t>
+  </si>
+  <si>
+    <t>I needed to can one night at the end of my stay. They refused to allow a cancellation 3 days in advance. When I checked out early on the day I needed to leave the front desk guy walked to my room to say you can't check out. I told him I know I had to pay for the extra night but I was leaving! The room was damp from the air conditioner leaking into the carpet and there were no stoppers in the sink or tub. Spider webs were in the pleats of the curtains. I have photos to prove this. I will never stay here again. The room was not what was pictured online. Oh and breakfast was cold coffee! MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed to can one night at the end of my stay. They refused to allow a cancellation 3 days in advance. When I checked out early on the day I needed to leave the front desk guy walked to my room to say you can't check out. I told him I know I had to pay for the extra night but I was leaving! The room was damp from the air conditioner leaking into the carpet and there were no stoppers in the sink or tub. Spider webs were in the pleats of the curtains. I have photos to prove this. I will never stay here again. The room was not what was pictured online. Oh and breakfast was cold coffee! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r497945544-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>497945544</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r489971789-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>489971789</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>For the most part I was pleased. The room was comfortable...</t>
+  </si>
+  <si>
+    <t>For the most part I was pleased. The room was comfortable, quiet &amp; safe. I did kill 4 roaches during my stay,  I know roaches are common in TX. The microwave was shorting out, something wrong with the wiring &amp; I realized the reason I didn't get housekeeping service my last full day was someone was in the room just long enough to steal a winning scratch off ticket. When I called later that night asking for towels, I was told I'd have to come get them, which I was unable to do. I didn't report the stolen property because there's no way to prove it. If $15 ticket was really worth it, rather than providing housekeeping just 1 more day to a paying customer...well do what you gotta do. I won't be back but alerting a friend about roaches &amp; stolen property, I would still recommend with caution. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>For the most part I was pleased. The room was comfortable, quiet &amp; safe. I did kill 4 roaches during my stay,  I know roaches are common in TX. The microwave was shorting out, something wrong with the wiring &amp; I realized the reason I didn't get housekeeping service my last full day was someone was in the room just long enough to steal a winning scratch off ticket. When I called later that night asking for towels, I was told I'd have to come get them, which I was unable to do. I didn't report the stolen property because there's no way to prove it. If $15 ticket was really worth it, rather than providing housekeeping just 1 more day to a paying customer...well do what you gotta do. I won't be back but alerting a friend about roaches &amp; stolen property, I would still recommend with caution. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r489706716-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>489706716</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r487162079-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>487162079</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Musty rooms, unfriendly night service, lackluster breakfast</t>
+  </si>
+  <si>
+    <t>Room was not as advertised online.  Breakfast consisted of cereal, milk, and coffee. Night attendant was rude and unwelcoming.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r483699829-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>483699829</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r479981926-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>479981926</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t>Clean. Experienced a good thunderstorm during the early morning but I was unaware of it till exiting my room for morning coffee in the lobby. Others were looking out the windows at the heavy rain &amp; lightning. All this to say that the place is well insulated and has great blackout curtains. I slept well with no distance. I'd stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Silbu C, Public Relations Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at Highway, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Clean. Experienced a good thunderstorm during the early morning but I was unaware of it till exiting my room for morning coffee in the lobby. Others were looking out the windows at the heavy rain &amp; lightning. All this to say that the place is well insulated and has great blackout curtains. I slept well with no distance. I'd stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r473955211-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>473955211</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Silbu C, Public Relations Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at Highway, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r470894017-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>470894017</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Satisfied customer</t>
+  </si>
+  <si>
+    <t>Room was clean and the property was well kept, there wasn't a lot of people hanging around outside, so I felt comfortable about my vehicle being parked in the lot, the staff was nice and cordial. Overall very good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Silbu C, Guest Relations Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at Highway, responded to this reviewResponded March 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2017</t>
+  </si>
+  <si>
+    <t>Room was clean and the property was well kept, there wasn't a lot of people hanging around outside, so I felt comfortable about my vehicle being parked in the lot, the staff was nice and cordial. Overall very good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r470344645-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>470344645</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r467845961-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>467845961</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r464171147-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>464171147</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>I was very satisfied with my stay, six nights, at this motel. The manager was very helpful and friendly. I was comfortable, it was quiet, clean, and met my needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Silbu C, Public Relations Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at Highway, responded to this reviewResponded March 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2017</t>
+  </si>
+  <si>
+    <t>I was very satisfied with my stay, six nights, at this motel. The manager was very helpful and friendly. I was comfortable, it was quiet, clean, and met my needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r463255033-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>463255033</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r461569377-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>461569377</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Horrible Customer Service and Illegal use of drugs</t>
+  </si>
+  <si>
+    <t>This hotel us unfortunately the worst I have ever stayed at!! I stayed Friday 2/17 with my 2 girfriend's with one of them pregnant, we had to experience extreme pot smells in the halls which came into our room. Complains that ended in telling us that if we don't like it we can leave (3 females) at 3:00am. We also were told that the manager will be informed and the next morning no one even knew the lady that was on duty the night before, they didn't know corporates number or even their own names. We were told to ask for Sam after doing that and being told that Sam wasn't there we had the discussion with the lady at the front desk (Gena) where she told us about 10 mins later that that was Sam standing beside her. He finally confessed to being Sam and offered no refund or discount. We also got told that it was our fault for the key card not working from the outside door but working for our room just fine. I will never stay here again and hope that no one else waste their money on this hotel its a joke! I hope no one else waste 84.00 on a hotel like this ever!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Silbu C, Guest Relations Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at Highway, responded to this reviewResponded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2017</t>
+  </si>
+  <si>
+    <t>This hotel us unfortunately the worst I have ever stayed at!! I stayed Friday 2/17 with my 2 girfriend's with one of them pregnant, we had to experience extreme pot smells in the halls which came into our room. Complains that ended in telling us that if we don't like it we can leave (3 females) at 3:00am. We also were told that the manager will be informed and the next morning no one even knew the lady that was on duty the night before, they didn't know corporates number or even their own names. We were told to ask for Sam after doing that and being told that Sam wasn't there we had the discussion with the lady at the front desk (Gena) where she told us about 10 mins later that that was Sam standing beside her. He finally confessed to being Sam and offered no refund or discount. We also got told that it was our fault for the key card not working from the outside door but working for our room just fine. I will never stay here again and hope that no one else waste their money on this hotel its a joke! I hope no one else waste 84.00 on a hotel like this ever!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r454948222-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>454948222</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The breakfast was not good. The only fruit was 2 apples that were shriveled up. Worst continental breakfast I have ever experienced. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r451027643-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>451027643</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>Sucked</t>
+  </si>
+  <si>
+    <t>No hot water...halls smelled like pot....rooms did not look like they did online...very deceiving....thought i was getting a jacuzzi room...was misinformed and not offerd an upgrade even...clerk was very rude and could not understand him...terrible experience</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r448704396-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>448704396</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>could do better</t>
+  </si>
+  <si>
+    <t>If it wasn't for the roaches I would have given you an A+, bed was great, location great, price wonderful staff wonderful</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r446761193-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>446761193</t>
+  </si>
+  <si>
+    <t>12/26/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r445985174-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>445985174</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r445382705-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>445382705</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>Horrible Staff</t>
+  </si>
+  <si>
+    <t>The one Staff member at the front desk was horrible! Wanted to over charge me after I showed her my rewards point to get a discount. Snatched things from me. I was never rude! I politely showed her she was wrong &amp; in the end gave me the price I needed. The Wyndham rewards card corearlo states you receive the room you ask for; she said she had no mom smoking rooms left. By that time I was tired and didn't want to argue with her. She was rude and made my stay very uncomfortable I had to check out early because of her. And refused to get us the WIFI code.MoreShow less</t>
+  </si>
+  <si>
+    <t>The one Staff member at the front desk was horrible! Wanted to over charge me after I showed her my rewards point to get a discount. Snatched things from me. I was never rude! I politely showed her she was wrong &amp; in the end gave me the price I needed. The Wyndham rewards card corearlo states you receive the room you ask for; she said she had no mom smoking rooms left. By that time I was tired and didn't want to argue with her. She was rude and made my stay very uncomfortable I had to check out early because of her. And refused to get us the WIFI code.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r439155946-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>439155946</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The place is average. Good for a sale price. Don't  pay full price for this location. Staff is not friendly.  Off the highway. </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r435867434-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>435867434</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>The air conditioner in the window wasn't working  super ho. Lady I'n the front desk was so rude. No customer service what so ever.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r435627357-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>435627357</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Place reeked of marijuana</t>
+  </si>
+  <si>
+    <t>This place was terrible, it smelled heavily of marijuana. When we told the front desk we were leaving she said "sir, this is a smoking motel"We weren't aware that it was a marijuana smoking motel.We will not come back.Also, when we asked for a refund, she charged our card twice rather than giving us back a refund.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r425618362-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>425618362</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>rodeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was the smallest that I have ever stayed in.  Desk chair only, no room for any other type of chair to watch TV. You cannot see the TV from the desk,  the TV is on top of the wardrobe cabinet.  As I said, smallest that I have ever seen.  Also dead crickets in toilet and under the A/C.  Room 125 Really don't plan to return, at least not in that room. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r423692969-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>423692969</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Jacuzzi suite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I enjoyed my stay. It's only worth the stay if you stay in the jacuzzi suite. The regular rooms upstairs have a funny smell to them. Crickets were coming out of nowhere...but like I said I think it's worth it for the suite. </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r421022593-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>421022593</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Great place, great customer service and Clean Room!</t>
+  </si>
+  <si>
+    <t>Stayed here with a friend a few weeks ago and had a great time. I would like to extend my greetings to the staff who took very good care of us. Thank you. Would be a pleasure to visit again. The place was really clean and had all the amenities we hope for..Free Internet, Free Breakfast and 24/7 attendance to all out needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Silbu C, Front Office Manager at Microtel Inn &amp; Suites by Wyndham Mesquite/Dallas at Highway, responded to this reviewResponded September 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here with a friend a few weeks ago and had a great time. I would like to extend my greetings to the staff who took very good care of us. Thank you. Would be a pleasure to visit again. The place was really clean and had all the amenities we hope for..Free Internet, Free Breakfast and 24/7 attendance to all out needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r397736113-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>397736113</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Bad service , bad hospitality</t>
+  </si>
+  <si>
+    <t>The place needs to be updated, the man in charge here is very rude. Sheets, towels and pillows are all old. Nasty. Thinking about leaving. The sheets are stained the shower is dirty the towels are so nasty ..... uggggggggggggghhhj</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r394350062-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>394350062</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r390507648-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>390507648</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Good motel</t>
+  </si>
+  <si>
+    <t>It was very clean. I lost my room key and I had no problems with getting another one. It's was very quite. I liked the overall experience that's why I keep going there when I'm around Mesquite Tx.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r384006721-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>384006721</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Ridiculous</t>
+  </si>
+  <si>
+    <t>Manager is extremely rude and unfriendly. It began when the manager told us that we would be charged $20 for them to wash the bedding. We told her we'd need to see where we agreed to that when we signed the contract. She promptly replied that it isn't in the contract and demanded that we pay the $20. While we trying to figure out how she had grounds to tack on a made-up fee, she kept calling over and over to ask when we'd be down there to pay the $20. We decided to pay (so she'd leave us alone) and checkout as soon as possible. We will NEVER stay at this hotel again. It was unnerving to have made-up fees added to our bill; we weren't sure what else she might "dream up" to add to our bill. The clerk at the front desk even admitted that the manager does that to people from time to time and that it isn't right. So, BEWARE, if you stay here you may be the next victim of this fraud.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager is extremely rude and unfriendly. It began when the manager told us that we would be charged $20 for them to wash the bedding. We told her we'd need to see where we agreed to that when we signed the contract. She promptly replied that it isn't in the contract and demanded that we pay the $20. While we trying to figure out how she had grounds to tack on a made-up fee, she kept calling over and over to ask when we'd be down there to pay the $20. We decided to pay (so she'd leave us alone) and checkout as soon as possible. We will NEVER stay at this hotel again. It was unnerving to have made-up fees added to our bill; we weren't sure what else she might "dream up" to add to our bill. The clerk at the front desk even admitted that the manager does that to people from time to time and that it isn't right. So, BEWARE, if you stay here you may be the next victim of this fraud.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r374515778-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>374515778</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r371871873-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>371871873</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Poor stay</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights at this hotel in a Queen Smoking Suite. The suite was on the second floor and no elevator and was a pain trying to get yourself and luggage through there highly active spring loaded doors. These doors were so active as soon as you alone stepped inside the door, it was closed. There is no ice machine on the second floor so back down the stairs and active doors. On check in we were only given 1 keycard and on the second day asked for another keycard, of course to get another keycard they re-code the new key so the original card is no good. Finally get 2 keycards that both open the door after another 3 trips back and up the stairs and spring doors. The maid did not service our room during our stay and asked for more coffee and got 2 packs and no creamer or sugar, this is poor service.Considering all the trouble we had with the doors, keycard and no maid service, I do not recommend this Hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights at this hotel in a Queen Smoking Suite. The suite was on the second floor and no elevator and was a pain trying to get yourself and luggage through there highly active spring loaded doors. These doors were so active as soon as you alone stepped inside the door, it was closed. There is no ice machine on the second floor so back down the stairs and active doors. On check in we were only given 1 keycard and on the second day asked for another keycard, of course to get another keycard they re-code the new key so the original card is no good. Finally get 2 keycards that both open the door after another 3 trips back and up the stairs and spring doors. The maid did not service our room during our stay and asked for more coffee and got 2 packs and no creamer or sugar, this is poor service.Considering all the trouble we had with the doors, keycard and no maid service, I do not recommend this Hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r362054688-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>362054688</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>my stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this was a great hotel. staff was very friendly. located in an area where you have choices of restaurants. it's a little hidden,so if you are going too fast, you could miss it. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r359026325-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>359026325</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Quiet room, but not clean enviroment</t>
+  </si>
+  <si>
+    <t>Hotel room was ok, but outside in hallways extremely disgusting, pee odor, dirty and a lot of cigarette odor. Outside look ok but is not clean hotel. Customer service extremely bad.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r357964801-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>357964801</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r356220949-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>356220949</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Average Hotel.</t>
+  </si>
+  <si>
+    <t>Its very average hotel, if u r paying &lt; $ 50 per night this could be ok. they are serving very ordinary breakfast, doest include any attractive items, all low quality stuff. (The continental breakfast was cereal and toast, and small cakes....)</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r353903223-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>353903223</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r352622074-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>352622074</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Staff member sterotyped me because I'm black with gold...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff member sterotyped me because I'm black with gold teeth....accused me of smoking...I don't even smoke period...if I smoke, I would have asked for s smoking room...I paid for non smoking room but was sterotyped becus of appearance </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r330570755-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>330570755</t>
+  </si>
+  <si>
+    <t>12/03/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r329616582-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>329616582</t>
+  </si>
+  <si>
+    <t>11/28/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r322535899-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>322535899</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>Nobody Care's</t>
+  </si>
+  <si>
+    <t>I stayed one night before I check in I ask the clerk if they had any problems with car's or trucks getting broken into . She respond ed no sir we have a great security system and cameras she told me not to park by the restaurant side but all other areas were covered by camera system. Truck got broken into I lost all my tools.Went to check on my truck about every hour at 1:45 am I noticed my truck had been broken into . I go straight to the clerk she is asleep at the desk in front of her is  great security /camera system. I ask her she tells me she can't work it I would have to talk to manager around 9 am.no call from anyone to follow up. I know that its my lose my problem . she reassured me , she's asleep at the front desk , in front of her is the camera system , no body care's MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>I stayed one night before I check in I ask the clerk if they had any problems with car's or trucks getting broken into . She respond ed no sir we have a great security system and cameras she told me not to park by the restaurant side but all other areas were covered by camera system. Truck got broken into I lost all my tools.Went to check on my truck about every hour at 1:45 am I noticed my truck had been broken into . I go straight to the clerk she is asleep at the desk in front of her is  great security /camera system. I ask her she tells me she can't work it I would have to talk to manager around 9 am.no call from anyone to follow up. I know that its my lose my problem . she reassured me , she's asleep at the front desk , in front of her is the camera system , no body care's More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r319918180-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>319918180</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r319172415-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>319172415</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>not the best for the price</t>
+  </si>
+  <si>
+    <t>My TV didn't work they waited til midnight to move me didn't try to accommodate me in no way the towels are not white very used. Second rm didn't have no plate in microwave it doesn't warm food</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r318426263-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>318426263</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My visit to microtel mesquite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We checked in very clean room very comfortable  bed decent rate $56 tax included  staff was nice . Only thing I would like to see (ice machine on 2nd floor) other than that for the area I would come back no problem </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r317399790-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>317399790</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>Well upon checking in there were ants on the table, and a...</t>
+  </si>
+  <si>
+    <t>Well upon checking in there were ants on the table, and a baby lizard by the door. Other than that i was satisfied.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r316440811-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>316440811</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r315937040-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>315937040</t>
+  </si>
+  <si>
+    <t>10/03/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r281452426-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>281452426</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r277474653-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>277474653</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r277399325-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>277399325</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Stay away!!</t>
+  </si>
+  <si>
+    <t>My family and I traveled to Texas for my son's graduation. The people at the front desk were rude! We were tired so we just decided to stay. We needed an extra blanket and sheet, they told us to come get it. The blanket had holes in it and it was worn out. It was as thin as the 1 sheet they gave us. The room smelled, My inlaws room was smelly, the floor was soaked from the leaking air conditioning.  The man totally ignored my mother inlaw when she told him about the floor being wet. I killed at least 8 bugs. I mean it was horrible! It doesn't deserve 1 star, but I had to give at least 1 in order to submit!MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I traveled to Texas for my son's graduation. The people at the front desk were rude! We were tired so we just decided to stay. We needed an extra blanket and sheet, they told us to come get it. The blanket had holes in it and it was worn out. It was as thin as the 1 sheet they gave us. The room smelled, My inlaws room was smelly, the floor was soaked from the leaking air conditioning.  The man totally ignored my mother inlaw when she told him about the floor being wet. I killed at least 8 bugs. I mean it was horrible! It doesn't deserve 1 star, but I had to give at least 1 in order to submit!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r272617449-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>272617449</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r272229313-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>272229313</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>Micro - Hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room smelled like mildew - ac leaked on the floor - caused the mildew smell - no towels or wash cloths in the room - asked for blankets and received blankets that looked like they were from the local homeless shelter   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r270242367-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>270242367</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r266823864-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>266823864</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Cannot recommend</t>
+  </si>
+  <si>
+    <t>Desk clerk sloppy in both dress and attention to detail.  Room was terrible.  Breakfast non-existent (cereal and bad coffee).  Advertises one price and charges another.  Wyndham should be ashamed to put their name on it.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r251985770-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>251985770</t>
+  </si>
+  <si>
+    <t>01/31/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r243754053-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>243754053</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>Rotten!!</t>
+  </si>
+  <si>
+    <t>My 11 daughter ate a molded donut that came from the vending machine. The motel staff took the package of molded donuts and refunded the money, but did nothing to keep others from buying anything else from the machine.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r212367897-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>212367897</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Feels like the Projects</t>
+  </si>
+  <si>
+    <t>This has got to be one of the worst hotels I have ever stayed at. To begin with it is very hard to find. Second, the property is in terrible shape. The rooms are small and cramped. They do not even give you shampoo, just one tiny bar of soap. Microtel should take away their license because this property is doing nothing for their brand. Would never even consider staying there again.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r206648296-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>206648296</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>Comfy for Short Stay</t>
+  </si>
+  <si>
+    <t>I stayed to get some rest for 3 days. It was mostly quiet until the 3rd day. I could hear people talking next door. Finally, they went to sleep around 9:00pm. the Pros are as follows: Good Clean comfortable bed, AC worked great. And although the TV was old it had HBO which plays some good Movies and Documentaries. The Diner in the front of the hotel, although it looks dingy, had some good breakfast food. that surprised me. the Cons are Needs Updating/ Paint different color too dark walls, spray for a couple of small bugs that I saw in the bathroom. Needs coffee pot, Updated TV, new baseboards. Overall, for the price, it was OK.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I stayed to get some rest for 3 days. It was mostly quiet until the 3rd day. I could hear people talking next door. Finally, they went to sleep around 9:00pm. the Pros are as follows: Good Clean comfortable bed, AC worked great. And although the TV was old it had HBO which plays some good Movies and Documentaries. The Diner in the front of the hotel, although it looks dingy, had some good breakfast food. that surprised me. the Cons are Needs Updating/ Paint different color too dark walls, spray for a couple of small bugs that I saw in the bathroom. Needs coffee pot, Updated TV, new baseboards. Overall, for the price, it was OK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r206554062-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>206554062</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r166670856-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>166670856</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>Good night sleep at a reasonable price!</t>
+  </si>
+  <si>
+    <t>The motel sets back from the frontage of US.80 East on the north side of the highway.  It is quite and clean.  Beds were real comfortable.  Air condition, once the electric to it was turned on, got the room to a cool temperature.  Take soap and shampoo or ask for some at the desk when checking in, there was only one package of shampoo and a single bar of soap in the bath room.  Breakfast area was small with limited choices.  Better figure on going out for breakfast!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r165266278-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>165266278</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>terrible stay</t>
+  </si>
+  <si>
+    <t>No microwave, no little frig, and you have to share an iron and ironing board. It's not worth the price at all. An hourly motel has more to offer. It doesn't even have a up to date tv. Can we say flat screen</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r163331491-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>163331491</t>
+  </si>
+  <si>
+    <t>06/07/2013</t>
+  </si>
+  <si>
+    <t>SERVICE IS OkAy....&amp; FOOD IS tErRiBlE</t>
+  </si>
+  <si>
+    <t>Very good hotel....food was not in varieties !!!it was 3/4 in numbers. no proper services and consideration for customers.i went on an educational trip to NASA,Houston,TX. the hotel is just opp to NASA JSC,Houston.i stayed there for abt a week. my advice is to go outside for food..11</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r145263635-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>145263635</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>Danger! Beware!</t>
+  </si>
+  <si>
+    <t>This place was so bad, we couldn't even stay there.  It looked abandoned, with several windows open. The grounds had not been mowed in months.  Weeds 10-12 inches high. No other cars there on a Friday afternoon.  We called the front desk to see if anyone was even inside and the clerk told us (in very poor English) that he didn't care if we came in or not; our credit card would be charged either way.  I did not feel safe bringing my daughter into a place like this, so we continued driving into Dallas in rush hour traffic to find a safer hotel to spend the night.  Horrible, horrible experience.  I will never book a room again from any Wyndham owned establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>This place was so bad, we couldn't even stay there.  It looked abandoned, with several windows open. The grounds had not been mowed in months.  Weeds 10-12 inches high. No other cars there on a Friday afternoon.  We called the front desk to see if anyone was even inside and the clerk told us (in very poor English) that he didn't care if we came in or not; our credit card would be charged either way.  I did not feel safe bringing my daughter into a place like this, so we continued driving into Dallas in rush hour traffic to find a safer hotel to spend the night.  Horrible, horrible experience.  I will never book a room again from any Wyndham owned establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r119206426-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>119206426</t>
+  </si>
+  <si>
+    <t>10/11/2011</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>For some unknown reason, my review was removed!!!  Well, I left my iphone on the bed &amp; came back within 30 minutes, just to notice someone stole my phone.  Of course the desk clerk lady said she removed the sheets off the bed &amp; didn't see it.  This means she stole my phone &amp; when I asked if I could review the film since I noticed the live camera, she said it didn't cover the hallways.  That was not true, because she knew I would see her with my phone.  Don't stay her!!!</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r69548640-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>69548640</t>
+  </si>
+  <si>
+    <t>07/03/2010</t>
+  </si>
+  <si>
+    <t>Good place to stay on your way to Dallas---clean and cool</t>
+  </si>
+  <si>
+    <t>Stopped at this hotel on our cross country road trip. It's right off the Interstate. Continental Breakfast. Free WIFI. Air works fine. Not far from Dallas if you want to stay here instead.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r20964519-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>20964519</t>
+  </si>
+  <si>
+    <t>10/17/2008</t>
+  </si>
+  <si>
+    <t>This is a great hotel!  I recommend it highly.</t>
+  </si>
+  <si>
+    <t>Much better than most major hotel chains in all the essentials!
+1. Beds
+   A. Fitted bottom sheets
+   B Good matress pad secured to mattress so it doesn't bunch up and slide around.
+  C. 2 pillows per bed
+  D. High quality sheets
+2. 4 good sized drawers for clothes, etc.
+3. Decent sized free standing wardrobe and separate suit case rack.
+4. TV on top of wardrobe slanted down for easy and convenient viewing from bed; you don't have to look over your toes!
+5. Cushioned window seat with pillow also suitable for suitcases
+6. In-wall A/C that is QUIET.  The fan runs all the time providing white noise, and the A/C cycles on and off unobtrusively and quietly.
+7. Flourescent lights above each bed (4' long) for reading.
+8. Convenient table between beds with digital clock and shelf underneath.
+9.  Phone on desk AND on the bedside table; no more getting out of bed to answer the phone.
+10 Convenient electrical outlets; 2 on the desk, 2 on the bedside table, 2 on each wall either side of the beds, 2 on the entry wall near the desk.
+11.  Free refrigerator, microwave, coffee maker on request that don't have to be plugged into the outlets you will want to be using.
+12. Nice bathroom with sufficient counter space.
+   A.  Good tub/shower with good drain plug that works
+   B. Curved shower rod so you aren't bothered by the curtain.
+13.  CLEAN!...Much better than most major hotel chains in all the essentials!1. Beds   A. Fitted bottom sheets   B Good matress pad secured to mattress so it doesn't bunch up and slide around.  C. 2 pillows per bed  D. High quality sheets2. 4 good sized drawers for clothes, etc.3. Decent sized free standing wardrobe and separate suit case rack.4. TV on top of wardrobe slanted down for easy and convenient viewing from bed; you don't have to look over your toes!5. Cushioned window seat with pillow also suitable for suitcases6. In-wall A/C that is QUIET.  The fan runs all the time providing white noise, and the A/C cycles on and off unobtrusively and quietly.7. Flourescent lights above each bed (4' long) for reading.8. Convenient table between beds with digital clock and shelf underneath.9.  Phone on desk AND on the bedside table; no more getting out of bed to answer the phone.10 Convenient electrical outlets; 2 on the desk, 2 on the bedside table, 2 on each wall either side of the beds, 2 on the entry wall near the desk.11.  Free refrigerator, microwave, coffee maker on request that don't have to be plugged into the outlets you will want to be using.12. Nice bathroom with sufficient counter space.   A.  Good tub/shower with good drain plug that works   B. Curved shower rod so you aren't bothered by the curtain.13.  CLEAN!14.  Secure.  Lobby locked at night with 24 hour presence.15.  Functional lobby with tables and couches.16.  Large rooms.17. QUIET  And per the ads, free long distance calls, free local calls, free high speed internet (which I am using to write this review).  Microtel has obviously carefully thought out the real needs of hotel guests and fulfilled all of the ones related to actual room and rest needs.  I have stayed in lots of Hiltons, Marriotts, etc. that don't do as good a job at fulfilling the necessary needs as this hotel does.  They just have fancier lobbies and cost 3 times as much.  I unhesitatingly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>Much better than most major hotel chains in all the essentials!
+1. Beds
+   A. Fitted bottom sheets
+   B Good matress pad secured to mattress so it doesn't bunch up and slide around.
+  C. 2 pillows per bed
+  D. High quality sheets
+2. 4 good sized drawers for clothes, etc.
+3. Decent sized free standing wardrobe and separate suit case rack.
+4. TV on top of wardrobe slanted down for easy and convenient viewing from bed; you don't have to look over your toes!
+5. Cushioned window seat with pillow also suitable for suitcases
+6. In-wall A/C that is QUIET.  The fan runs all the time providing white noise, and the A/C cycles on and off unobtrusively and quietly.
+7. Flourescent lights above each bed (4' long) for reading.
+8. Convenient table between beds with digital clock and shelf underneath.
+9.  Phone on desk AND on the bedside table; no more getting out of bed to answer the phone.
+10 Convenient electrical outlets; 2 on the desk, 2 on the bedside table, 2 on each wall either side of the beds, 2 on the entry wall near the desk.
+11.  Free refrigerator, microwave, coffee maker on request that don't have to be plugged into the outlets you will want to be using.
+12. Nice bathroom with sufficient counter space.
+   A.  Good tub/shower with good drain plug that works
+   B. Curved shower rod so you aren't bothered by the curtain.
+13.  CLEAN!...Much better than most major hotel chains in all the essentials!1. Beds   A. Fitted bottom sheets   B Good matress pad secured to mattress so it doesn't bunch up and slide around.  C. 2 pillows per bed  D. High quality sheets2. 4 good sized drawers for clothes, etc.3. Decent sized free standing wardrobe and separate suit case rack.4. TV on top of wardrobe slanted down for easy and convenient viewing from bed; you don't have to look over your toes!5. Cushioned window seat with pillow also suitable for suitcases6. In-wall A/C that is QUIET.  The fan runs all the time providing white noise, and the A/C cycles on and off unobtrusively and quietly.7. Flourescent lights above each bed (4' long) for reading.8. Convenient table between beds with digital clock and shelf underneath.9.  Phone on desk AND on the bedside table; no more getting out of bed to answer the phone.10 Convenient electrical outlets; 2 on the desk, 2 on the bedside table, 2 on each wall either side of the beds, 2 on the entry wall near the desk.11.  Free refrigerator, microwave, coffee maker on request that don't have to be plugged into the outlets you will want to be using.12. Nice bathroom with sufficient counter space.   A.  Good tub/shower with good drain plug that works   B. Curved shower rod so you aren't bothered by the curtain.13.  CLEAN!14.  Secure.  Lobby locked at night with 24 hour presence.15.  Functional lobby with tables and couches.16.  Large rooms.17. QUIET  And per the ads, free long distance calls, free local calls, free high speed internet (which I am using to write this review).  Microtel has obviously carefully thought out the real needs of hotel guests and fulfilled all of the ones related to actual room and rest needs.  I have stayed in lots of Hiltons, Marriotts, etc. that don't do as good a job at fulfilling the necessary needs as this hotel does.  They just have fancier lobbies and cost 3 times as much.  I unhesitatingly recommend this hotel!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1955,5252 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>121</v>
+      </c>
+      <c r="O17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>121</v>
+      </c>
+      <c r="O18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>137</v>
+      </c>
+      <c r="O19" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" t="s">
+        <v>141</v>
+      </c>
+      <c r="L20" t="s">
+        <v>142</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" t="s">
+        <v>152</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O22" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s">
+        <v>88</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>143</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>161</v>
+      </c>
+      <c r="O24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>162</v>
+      </c>
+      <c r="X24" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>166</v>
+      </c>
+      <c r="J25" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>169</v>
+      </c>
+      <c r="X25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" t="s">
+        <v>175</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>168</v>
+      </c>
+      <c r="O26" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>176</v>
+      </c>
+      <c r="X26" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" t="s">
+        <v>181</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>168</v>
+      </c>
+      <c r="O27" t="s">
+        <v>127</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" t="s">
+        <v>184</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>168</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" t="s">
+        <v>188</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>189</v>
+      </c>
+      <c r="O29" t="s">
+        <v>127</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>190</v>
+      </c>
+      <c r="X29" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>189</v>
+      </c>
+      <c r="O30" t="s">
+        <v>74</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" t="s">
+        <v>198</v>
+      </c>
+      <c r="K31" t="s">
+        <v>199</v>
+      </c>
+      <c r="L31" t="s">
+        <v>200</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>189</v>
+      </c>
+      <c r="O31" t="s">
+        <v>100</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>201</v>
+      </c>
+      <c r="X31" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>205</v>
+      </c>
+      <c r="J32" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" t="s">
+        <v>207</v>
+      </c>
+      <c r="L32" t="s">
+        <v>208</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>209</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>210</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>211</v>
+      </c>
+      <c r="J33" t="s">
+        <v>212</v>
+      </c>
+      <c r="K33" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" t="s">
+        <v>214</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>209</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>216</v>
+      </c>
+      <c r="J34" t="s">
+        <v>217</v>
+      </c>
+      <c r="K34" t="s">
+        <v>218</v>
+      </c>
+      <c r="L34" t="s">
+        <v>219</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>220</v>
+      </c>
+      <c r="O34" t="s">
+        <v>127</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>222</v>
+      </c>
+      <c r="J35" t="s">
+        <v>223</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>220</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>225</v>
+      </c>
+      <c r="J36" t="s">
+        <v>226</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>220</v>
+      </c>
+      <c r="O36" t="s">
+        <v>127</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>228</v>
+      </c>
+      <c r="J37" t="s">
+        <v>229</v>
+      </c>
+      <c r="K37" t="s">
+        <v>230</v>
+      </c>
+      <c r="L37" t="s">
+        <v>231</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>220</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>234</v>
+      </c>
+      <c r="J38" t="s">
+        <v>235</v>
+      </c>
+      <c r="K38" t="s">
+        <v>207</v>
+      </c>
+      <c r="L38" t="s">
+        <v>236</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>237</v>
+      </c>
+      <c r="O38" t="s">
+        <v>100</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>239</v>
+      </c>
+      <c r="J39" t="s">
+        <v>240</v>
+      </c>
+      <c r="K39" t="s">
+        <v>241</v>
+      </c>
+      <c r="L39" t="s">
+        <v>242</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>237</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>243</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>244</v>
+      </c>
+      <c r="J40" t="s">
+        <v>245</v>
+      </c>
+      <c r="K40" t="s">
+        <v>246</v>
+      </c>
+      <c r="L40" t="s">
+        <v>247</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>237</v>
+      </c>
+      <c r="O40" t="s">
+        <v>89</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>248</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>249</v>
+      </c>
+      <c r="J41" t="s">
+        <v>250</v>
+      </c>
+      <c r="K41" t="s">
+        <v>251</v>
+      </c>
+      <c r="L41" t="s">
+        <v>252</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>253</v>
+      </c>
+      <c r="O41" t="s">
+        <v>89</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>254</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>255</v>
+      </c>
+      <c r="J42" t="s">
+        <v>256</v>
+      </c>
+      <c r="K42" t="s">
+        <v>257</v>
+      </c>
+      <c r="L42" t="s">
+        <v>258</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>259</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>260</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>261</v>
+      </c>
+      <c r="J43" t="s">
+        <v>262</v>
+      </c>
+      <c r="K43" t="s">
+        <v>263</v>
+      </c>
+      <c r="L43" t="s">
+        <v>264</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>259</v>
+      </c>
+      <c r="O43" t="s">
+        <v>100</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>265</v>
+      </c>
+      <c r="X43" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>268</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>269</v>
+      </c>
+      <c r="J44" t="s">
+        <v>270</v>
+      </c>
+      <c r="K44" t="s">
+        <v>271</v>
+      </c>
+      <c r="L44" t="s">
+        <v>272</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>273</v>
+      </c>
+      <c r="O44" t="s">
+        <v>74</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>275</v>
+      </c>
+      <c r="J45" t="s">
+        <v>276</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>273</v>
+      </c>
+      <c r="O45" t="s">
+        <v>74</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>277</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>278</v>
+      </c>
+      <c r="J46" t="s">
+        <v>279</v>
+      </c>
+      <c r="K46" t="s">
+        <v>280</v>
+      </c>
+      <c r="L46" t="s">
+        <v>281</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>273</v>
+      </c>
+      <c r="O46" t="s">
+        <v>100</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>282</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>283</v>
+      </c>
+      <c r="J47" t="s">
+        <v>284</v>
+      </c>
+      <c r="K47" t="s">
+        <v>285</v>
+      </c>
+      <c r="L47" t="s">
+        <v>286</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>288</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>289</v>
+      </c>
+      <c r="J48" t="s">
+        <v>290</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>291</v>
+      </c>
+      <c r="O48" t="s">
+        <v>89</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>292</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>293</v>
+      </c>
+      <c r="J49" t="s">
+        <v>294</v>
+      </c>
+      <c r="K49" t="s">
+        <v>295</v>
+      </c>
+      <c r="L49" t="s">
+        <v>296</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>297</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>299</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>300</v>
+      </c>
+      <c r="J50" t="s">
+        <v>301</v>
+      </c>
+      <c r="K50" t="s">
+        <v>302</v>
+      </c>
+      <c r="L50" t="s">
+        <v>303</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>297</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>304</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>305</v>
+      </c>
+      <c r="J51" t="s">
+        <v>306</v>
+      </c>
+      <c r="K51" t="s">
+        <v>307</v>
+      </c>
+      <c r="L51" t="s">
+        <v>308</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>309</v>
+      </c>
+      <c r="O51" t="s">
+        <v>74</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>310</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>311</v>
+      </c>
+      <c r="J52" t="s">
+        <v>312</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>309</v>
+      </c>
+      <c r="O52" t="s">
+        <v>89</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>313</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>314</v>
+      </c>
+      <c r="J53" t="s">
+        <v>315</v>
+      </c>
+      <c r="K53" t="s">
+        <v>316</v>
+      </c>
+      <c r="L53" t="s">
+        <v>317</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>318</v>
+      </c>
+      <c r="O53" t="s">
+        <v>74</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>319</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>320</v>
+      </c>
+      <c r="J54" t="s">
+        <v>321</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>322</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>323</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>324</v>
+      </c>
+      <c r="J55" t="s">
+        <v>325</v>
+      </c>
+      <c r="K55" t="s">
+        <v>326</v>
+      </c>
+      <c r="L55" t="s">
+        <v>327</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>322</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>328</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>329</v>
+      </c>
+      <c r="J56" t="s">
+        <v>330</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>331</v>
+      </c>
+      <c r="O56" t="s">
+        <v>74</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>332</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>333</v>
+      </c>
+      <c r="J57" t="s">
+        <v>334</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>331</v>
+      </c>
+      <c r="O57" t="s">
+        <v>89</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>335</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>336</v>
+      </c>
+      <c r="J58" t="s">
+        <v>337</v>
+      </c>
+      <c r="K58" t="s">
+        <v>338</v>
+      </c>
+      <c r="L58" t="s">
+        <v>339</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>340</v>
+      </c>
+      <c r="O58" t="s">
+        <v>74</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>342</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>343</v>
+      </c>
+      <c r="J59" t="s">
+        <v>344</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s">
+        <v>88</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>340</v>
+      </c>
+      <c r="O59" t="s">
+        <v>127</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>345</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>346</v>
+      </c>
+      <c r="J60" t="s">
+        <v>347</v>
+      </c>
+      <c r="K60" t="s">
+        <v>348</v>
+      </c>
+      <c r="L60" t="s">
+        <v>349</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>340</v>
+      </c>
+      <c r="O60" t="s">
+        <v>89</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>350</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>351</v>
+      </c>
+      <c r="J61" t="s">
+        <v>352</v>
+      </c>
+      <c r="K61" t="s">
+        <v>353</v>
+      </c>
+      <c r="L61" t="s">
+        <v>354</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>340</v>
+      </c>
+      <c r="O61" t="s">
+        <v>89</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>355</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>356</v>
+      </c>
+      <c r="J62" t="s">
+        <v>357</v>
+      </c>
+      <c r="K62" t="s">
+        <v>358</v>
+      </c>
+      <c r="L62" t="s">
+        <v>359</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>340</v>
+      </c>
+      <c r="O62" t="s">
+        <v>74</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>360</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>361</v>
+      </c>
+      <c r="J63" t="s">
+        <v>362</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>340</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>363</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>364</v>
+      </c>
+      <c r="J64" t="s">
+        <v>365</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s">
+        <v>88</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>318</v>
+      </c>
+      <c r="O64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>366</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>367</v>
+      </c>
+      <c r="J65" t="s">
+        <v>368</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>369</v>
+      </c>
+      <c r="O65" t="s">
+        <v>74</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>370</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>371</v>
+      </c>
+      <c r="J66" t="s">
+        <v>372</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>373</v>
+      </c>
+      <c r="O66" t="s">
+        <v>89</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>374</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>375</v>
+      </c>
+      <c r="J67" t="s">
+        <v>376</v>
+      </c>
+      <c r="K67" t="s">
+        <v>377</v>
+      </c>
+      <c r="L67" t="s">
+        <v>378</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>373</v>
+      </c>
+      <c r="O67" t="s">
+        <v>89</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>380</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>381</v>
+      </c>
+      <c r="J68" t="s">
+        <v>382</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>373</v>
+      </c>
+      <c r="O68" t="s">
+        <v>74</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>383</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>384</v>
+      </c>
+      <c r="J69" t="s">
+        <v>385</v>
+      </c>
+      <c r="K69" t="s">
+        <v>386</v>
+      </c>
+      <c r="L69" t="s">
+        <v>387</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>373</v>
+      </c>
+      <c r="O69" t="s">
+        <v>74</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>388</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>389</v>
+      </c>
+      <c r="J70" t="s">
+        <v>390</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>373</v>
+      </c>
+      <c r="O70" t="s">
+        <v>127</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>391</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>392</v>
+      </c>
+      <c r="J71" t="s">
+        <v>393</v>
+      </c>
+      <c r="K71" t="s">
+        <v>394</v>
+      </c>
+      <c r="L71" t="s">
+        <v>395</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>396</v>
+      </c>
+      <c r="O71" t="s">
+        <v>89</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>397</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>398</v>
+      </c>
+      <c r="J72" t="s">
+        <v>399</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>400</v>
+      </c>
+      <c r="O72" t="s">
+        <v>74</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>401</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>402</v>
+      </c>
+      <c r="J73" t="s">
+        <v>403</v>
+      </c>
+      <c r="K73" t="s">
+        <v>404</v>
+      </c>
+      <c r="L73" t="s">
+        <v>405</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>406</v>
+      </c>
+      <c r="O73" t="s">
+        <v>89</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>407</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>408</v>
+      </c>
+      <c r="J74" t="s">
+        <v>409</v>
+      </c>
+      <c r="K74" t="s">
+        <v>410</v>
+      </c>
+      <c r="L74" t="s">
+        <v>411</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>412</v>
+      </c>
+      <c r="O74" t="s">
+        <v>74</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>413</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>414</v>
+      </c>
+      <c r="J75" t="s">
+        <v>415</v>
+      </c>
+      <c r="K75" t="s">
+        <v>416</v>
+      </c>
+      <c r="L75" t="s">
+        <v>417</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>418</v>
+      </c>
+      <c r="O75" t="s">
+        <v>127</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>420</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>421</v>
+      </c>
+      <c r="J76" t="s">
+        <v>422</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>423</v>
+      </c>
+      <c r="O76" t="s">
+        <v>74</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>424</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>425</v>
+      </c>
+      <c r="J77" t="s">
+        <v>426</v>
+      </c>
+      <c r="K77" t="s">
+        <v>427</v>
+      </c>
+      <c r="L77" t="s">
+        <v>428</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>429</v>
+      </c>
+      <c r="O77" t="s">
+        <v>74</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>430</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>431</v>
+      </c>
+      <c r="J78" t="s">
+        <v>432</v>
+      </c>
+      <c r="K78" t="s">
+        <v>433</v>
+      </c>
+      <c r="L78" t="s">
+        <v>434</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>435</v>
+      </c>
+      <c r="O78" t="s">
+        <v>100</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>436</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>437</v>
+      </c>
+      <c r="J79" t="s">
+        <v>438</v>
+      </c>
+      <c r="K79" t="s">
+        <v>439</v>
+      </c>
+      <c r="L79" t="s">
+        <v>440</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>441</v>
+      </c>
+      <c r="O79" t="s">
+        <v>100</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>442</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>443</v>
+      </c>
+      <c r="J80" t="s">
+        <v>444</v>
+      </c>
+      <c r="K80" t="s">
+        <v>445</v>
+      </c>
+      <c r="L80" t="s">
+        <v>446</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>447</v>
+      </c>
+      <c r="O80" t="s">
+        <v>89</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>449</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>450</v>
+      </c>
+      <c r="J81" t="s">
+        <v>451</v>
+      </c>
+      <c r="K81" t="s">
+        <v>452</v>
+      </c>
+      <c r="L81" t="s">
+        <v>453</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>454</v>
+      </c>
+      <c r="O81" t="s">
+        <v>89</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>455</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>456</v>
+      </c>
+      <c r="J82" t="s">
+        <v>457</v>
+      </c>
+      <c r="K82" t="s">
+        <v>458</v>
+      </c>
+      <c r="L82" t="s">
+        <v>459</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>460</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>461</v>
+      </c>
+      <c r="J83" t="s">
+        <v>462</v>
+      </c>
+      <c r="K83" t="s">
+        <v>463</v>
+      </c>
+      <c r="L83" t="s">
+        <v>464</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>465</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>466</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_539.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_539.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="548">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>sgeorg898218</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>JackieShree</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r572914293-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve">Room smelled old, not fresh.... Towels were VERY thin. I had to go to Walmart to get air freshener and febreeze. After all the air Freshener i was able to stay. I asked for another room and was told that’s what i paid for. I let it go but i wanted to say, you can’t smell rooms over the Internet! </t>
   </si>
   <si>
+    <t>Btadley D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r572291720-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>Yes upon checking into my room I observed the sheetings on my bed was burnt cigarettes marks n holes three of them and I complained several about I want to change rooms they refused to so I immediately call customer service file complaint also later that night ice machine and pop machine wasn't working and I had business paperwork to fax too my job I went downstairs ask too fax things one guy India with glasses refuse to fax saying it's broke then he said only two pages he fax I also ask him for manager never around for my entire two nights stay. This hotel and it's employees has nasty attitudes and need to clean up and get everything fixed and working properly and also on there website it says they offer faxing services but they refuse to assist me I would never recommend this hotel too anybody.April 7-9, 2018 More</t>
   </si>
   <si>
+    <t>mbrown727362</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r568101524-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -225,6 +237,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>moandy001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r566290866-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -243,6 +258,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Stevens201718</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r556581576-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -261,6 +279,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>401kenishab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r544831490-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -273,6 +294,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>lemuelk2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r543422485-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -291,6 +315,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Drew G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r536043408-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -306,6 +333,9 @@
     <t>One of the worst places I’ve ever stayed in. It was dirty, there were insects in the room, and it smelled like the AC unit was full of mold. I booked it through Wyndham’s app where it said checkout was at noon. At eleven am, the front desk called my room and said I need to check out now if I wasn’t staying another night. If you’re wondering if the cheap price is worth it, it’s not!!</t>
   </si>
   <si>
+    <t>J. C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r530262545-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -321,6 +351,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>stephensR4755TK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r528800918-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -330,6 +363,9 @@
     <t>10/01/2017</t>
   </si>
   <si>
+    <t>joyc124</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r526051802-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -339,6 +375,9 @@
     <t>09/20/2017</t>
   </si>
   <si>
+    <t>712jerryf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r521797632-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -348,6 +387,9 @@
     <t>09/06/2017</t>
   </si>
   <si>
+    <t>tonydF5896LK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r510629222-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -366,6 +408,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>8538nm01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r508519781-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -384,6 +429,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Sharmistha B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r503328793-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -402,6 +450,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Betty T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r500518031-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -420,6 +471,9 @@
     <t>I needed to can one night at the end of my stay. They refused to allow a cancellation 3 days in advance. When I checked out early on the day I needed to leave the front desk guy walked to my room to say you can't check out. I told him I know I had to pay for the extra night but I was leaving! The room was damp from the air conditioner leaking into the carpet and there were no stoppers in the sink or tub. Spider webs were in the pleats of the curtains. I have photos to prove this. I will never stay here again. The room was not what was pictured online. Oh and breakfast was cold coffee! More</t>
   </si>
   <si>
+    <t>534charliel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r497945544-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -432,6 +486,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Y7931BCsharong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r489971789-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -453,6 +510,9 @@
     <t>For the most part I was pleased. The room was comfortable, quiet &amp; safe. I did kill 4 roaches during my stay,  I know roaches are common in TX. The microwave was shorting out, something wrong with the wiring &amp; I realized the reason I didn't get housekeeping service my last full day was someone was in the room just long enough to steal a winning scratch off ticket. When I called later that night asking for towels, I was told I'd have to come get them, which I was unable to do. I didn't report the stolen property because there's no way to prove it. If $15 ticket was really worth it, rather than providing housekeeping just 1 more day to a paying customer...well do what you gotta do. I won't be back but alerting a friend about roaches &amp; stolen property, I would still recommend with caution. More</t>
   </si>
   <si>
+    <t>Mary P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r489706716-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -462,6 +522,9 @@
     <t>06/01/2017</t>
   </si>
   <si>
+    <t>982warrenk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r487162079-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -477,6 +540,9 @@
     <t>Room was not as advertised online.  Breakfast consisted of cereal, milk, and coffee. Night attendant was rude and unwelcoming.</t>
   </si>
   <si>
+    <t>amanda k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r483699829-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -486,6 +552,9 @@
     <t>05/12/2017</t>
   </si>
   <si>
+    <t>edhass</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r479981926-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -513,6 +582,9 @@
     <t>Clean. Experienced a good thunderstorm during the early morning but I was unaware of it till exiting my room for morning coffee in the lobby. Others were looking out the windows at the heavy rain &amp; lightning. All this to say that the place is well insulated and has great blackout curtains. I slept well with no distance. I'd stay again.More</t>
   </si>
   <si>
+    <t>marquish365</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r473955211-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -531,6 +603,9 @@
     <t>Responded April 11, 2017</t>
   </si>
   <si>
+    <t>7bobbyp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r470894017-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -555,6 +630,9 @@
     <t>Room was clean and the property was well kept, there wasn't a lot of people hanging around outside, so I felt comfortable about my vehicle being parked in the lot, the staff was nice and cordial. Overall very good experience.More</t>
   </si>
   <si>
+    <t>808ekaterinad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r470344645-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -564,6 +642,9 @@
     <t>03/26/2017</t>
   </si>
   <si>
+    <t>michaelbU9219VE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r467845961-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -573,6 +654,9 @@
     <t>03/16/2017</t>
   </si>
   <si>
+    <t>Schnauzerfamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r464171147-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -597,6 +681,9 @@
     <t>I was very satisfied with my stay, six nights, at this motel. The manager was very helpful and friendly. I was comfortable, it was quiet, clean, and met my needs.More</t>
   </si>
   <si>
+    <t>Vwventura</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r463255033-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -606,6 +693,9 @@
     <t>02/27/2017</t>
   </si>
   <si>
+    <t>J8727TYashleyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r461569377-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -630,6 +720,9 @@
     <t>This hotel us unfortunately the worst I have ever stayed at!! I stayed Friday 2/17 with my 2 girfriend's with one of them pregnant, we had to experience extreme pot smells in the halls which came into our room. Complains that ended in telling us that if we don't like it we can leave (3 females) at 3:00am. We also were told that the manager will be informed and the next morning no one even knew the lady that was on duty the night before, they didn't know corporates number or even their own names. We were told to ask for Sam after doing that and being told that Sam wasn't there we had the discussion with the lady at the front desk (Gena) where she told us about 10 mins later that that was Sam standing beside her. He finally confessed to being Sam and offered no refund or discount. We also got told that it was our fault for the key card not working from the outside door but working for our room just fine. I will never stay here again and hope that no one else waste their money on this hotel its a joke! I hope no one else waste 84.00 on a hotel like this ever!!!More</t>
   </si>
   <si>
+    <t>kohijedi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r454948222-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -648,6 +741,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>725stacyt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r451027643-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -663,6 +759,9 @@
     <t>No hot water...halls smelled like pot....rooms did not look like they did online...very deceiving....thought i was getting a jacuzzi room...was misinformed and not offerd an upgrade even...clerk was very rude and could not understand him...terrible experience</t>
   </si>
   <si>
+    <t>marycW2348GA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r448704396-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -681,6 +780,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>joeolien49</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r446761193-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -690,6 +792,9 @@
     <t>12/26/2016</t>
   </si>
   <si>
+    <t>929tracyk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r445985174-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -699,6 +804,9 @@
     <t>12/21/2016</t>
   </si>
   <si>
+    <t>16cassandrag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r445382705-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -717,6 +825,9 @@
     <t>The one Staff member at the front desk was horrible! Wanted to over charge me after I showed her my rewards point to get a discount. Snatched things from me. I was never rude! I politely showed her she was wrong &amp; in the end gave me the price I needed. The Wyndham rewards card corearlo states you receive the room you ask for; she said she had no mom smoking rooms left. By that time I was tired and didn't want to argue with her. She was rude and made my stay very uncomfortable I had to check out early because of her. And refused to get us the WIFI code.More</t>
   </si>
   <si>
+    <t>Dolores C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r439155946-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -732,6 +843,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>545yajairag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r435867434-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -747,6 +861,9 @@
     <t>The air conditioner in the window wasn't working  super ho. Lady I'n the front desk was so rude. No customer service what so ever.</t>
   </si>
   <si>
+    <t>marlinb44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r435627357-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -762,6 +879,9 @@
     <t>This place was terrible, it smelled heavily of marijuana. When we told the front desk we were leaving she said "sir, this is a smoking motel"We weren't aware that it was a marijuana smoking motel.We will not come back.Also, when we asked for a refund, she charged our card twice rather than giving us back a refund.</t>
   </si>
   <si>
+    <t>Ken M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r425618362-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -780,6 +900,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>716brittanih</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r423692969-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -822,6 +945,9 @@
     <t>Stayed here with a friend a few weeks ago and had a great time. I would like to extend my greetings to the staff who took very good care of us. Thank you. Would be a pleasure to visit again. The place was really clean and had all the amenities we hope for..Free Internet, Free Breakfast and 24/7 attendance to all out needs.More</t>
   </si>
   <si>
+    <t>Frank H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r397736113-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -840,6 +966,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Not2mention</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r394350062-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -849,6 +978,9 @@
     <t>07/19/2016</t>
   </si>
   <si>
+    <t>marlonh38</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r390507648-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -864,6 +996,9 @@
     <t>It was very clean. I lost my room key and I had no problems with getting another one. It's was very quite. I liked the overall experience that's why I keep going there when I'm around Mesquite Tx.</t>
   </si>
   <si>
+    <t>CRW803</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r384006721-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -882,6 +1017,9 @@
     <t>Manager is extremely rude and unfriendly. It began when the manager told us that we would be charged $20 for them to wash the bedding. We told her we'd need to see where we agreed to that when we signed the contract. She promptly replied that it isn't in the contract and demanded that we pay the $20. While we trying to figure out how she had grounds to tack on a made-up fee, she kept calling over and over to ask when we'd be down there to pay the $20. We decided to pay (so she'd leave us alone) and checkout as soon as possible. We will NEVER stay at this hotel again. It was unnerving to have made-up fees added to our bill; we weren't sure what else she might "dream up" to add to our bill. The clerk at the front desk even admitted that the manager does that to people from time to time and that it isn't right. So, BEWARE, if you stay here you may be the next victim of this fraud.More</t>
   </si>
   <si>
+    <t>Fleeingmomma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r374515778-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -894,6 +1032,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Raymond L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r371871873-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1056,9 @@
     <t>We stayed 2 nights at this hotel in a Queen Smoking Suite. The suite was on the second floor and no elevator and was a pain trying to get yourself and luggage through there highly active spring loaded doors. These doors were so active as soon as you alone stepped inside the door, it was closed. There is no ice machine on the second floor so back down the stairs and active doors. On check in we were only given 1 keycard and on the second day asked for another keycard, of course to get another keycard they re-code the new key so the original card is no good. Finally get 2 keycards that both open the door after another 3 trips back and up the stairs and spring doors. The maid did not service our room during our stay and asked for more coffee and got 2 packs and no creamer or sugar, this is poor service.Considering all the trouble we had with the doors, keycard and no maid service, I do not recommend this Hotel.More</t>
   </si>
   <si>
+    <t>Saugonda W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r362054688-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1074,9 @@
     <t xml:space="preserve">this was a great hotel. staff was very friendly. located in an area where you have choices of restaurants. it's a little hidden,so if you are going too fast, you could miss it. </t>
   </si>
   <si>
+    <t>Carlos M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r359026325-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -948,6 +1095,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Eddie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r357964801-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1107,9 @@
     <t>03/23/2016</t>
   </si>
   <si>
+    <t>waheed k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r356220949-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -975,6 +1128,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Z510AQashleyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r353903223-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1143,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>charleshB1966QF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r352622074-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1161,9 @@
     <t xml:space="preserve">Staff member sterotyped me because I'm black with gold teeth....accused me of smoking...I don't even smoke period...if I smoke, I would have asked for s smoking room...I paid for non smoking room but was sterotyped becus of appearance </t>
   </si>
   <si>
+    <t>calvinc385</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r330570755-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1014,6 +1176,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Barry B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r329616582-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1188,9 @@
     <t>11/28/2015</t>
   </si>
   <si>
+    <t>homerot221</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r322535899-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1212,9 @@
     <t>I stayed one night before I check in I ask the clerk if they had any problems with car's or trucks getting broken into . She respond ed no sir we have a great security system and cameras she told me not to park by the restaurant side but all other areas were covered by camera system. Truck got broken into I lost all my tools.Went to check on my truck about every hour at 1:45 am I noticed my truck had been broken into . I go straight to the clerk she is asleep at the desk in front of her is  great security /camera system. I ask her she tells me she can't work it I would have to talk to manager around 9 am.no call from anyone to follow up. I know that its my lose my problem . she reassured me , she's asleep at the front desk , in front of her is the camera system , no body care's More</t>
   </si>
   <si>
+    <t>justinc403</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r319918180-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1224,9 @@
     <t>10/18/2015</t>
   </si>
   <si>
+    <t>117tarat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r319172415-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1068,6 +1242,9 @@
     <t>My TV didn't work they waited til midnight to move me didn't try to accommodate me in no way the towels are not white very used. Second rm didn't have no plate in microwave it doesn't warm food</t>
   </si>
   <si>
+    <t>Mike Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r318426263-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1260,9 @@
     <t xml:space="preserve">We checked in very clean room very comfortable  bed decent rate $56 tax included  staff was nice . Only thing I would like to see (ice machine on 2nd floor) other than that for the area I would come back no problem </t>
   </si>
   <si>
+    <t>736phillipw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r317399790-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1098,6 +1278,9 @@
     <t>Well upon checking in there were ants on the table, and a baby lizard by the door. Other than that i was satisfied.</t>
   </si>
   <si>
+    <t>171carolynb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r316440811-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1290,9 @@
     <t>10/05/2015</t>
   </si>
   <si>
+    <t>Chris M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r315937040-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1116,6 +1302,9 @@
     <t>10/03/2015</t>
   </si>
   <si>
+    <t>44harolds</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r281452426-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1128,6 +1317,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>aprilh280</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r277474653-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1332,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>TRINA B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r277399325-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1158,6 +1353,9 @@
     <t>My family and I traveled to Texas for my son's graduation. The people at the front desk were rude! We were tired so we just decided to stay. We needed an extra blanket and sheet, they told us to come get it. The blanket had holes in it and it was worn out. It was as thin as the 1 sheet they gave us. The room smelled, My inlaws room was smelly, the floor was soaked from the leaking air conditioning.  The man totally ignored my mother inlaw when she told him about the floor being wet. I killed at least 8 bugs. I mean it was horrible! It doesn't deserve 1 star, but I had to give at least 1 in order to submit!More</t>
   </si>
   <si>
+    <t>Keith R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r272617449-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1167,6 +1365,9 @@
     <t>05/17/2015</t>
   </si>
   <si>
+    <t>63jasonf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r272229313-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1182,6 +1383,9 @@
     <t xml:space="preserve">Room smelled like mildew - ac leaked on the floor - caused the mildew smell - no towels or wash cloths in the room - asked for blankets and received blankets that looked like they were from the local homeless shelter   </t>
   </si>
   <si>
+    <t>VICTOR R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r270242367-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1191,6 +1395,9 @@
     <t>05/05/2015</t>
   </si>
   <si>
+    <t>Dorothy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r266823864-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1209,6 +1416,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>369martyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r251985770-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1221,6 +1431,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>lindsayp343</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r243754053-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1239,6 +1452,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>ChristopherD507</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r212367897-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1257,6 +1473,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>pocahunter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r206648296-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1278,6 +1497,9 @@
     <t>I stayed to get some rest for 3 days. It was mostly quiet until the 3rd day. I could hear people talking next door. Finally, they went to sleep around 9:00pm. the Pros are as follows: Good Clean comfortable bed, AC worked great. And although the TV was old it had HBO which plays some good Movies and Documentaries. The Diner in the front of the hotel, although it looks dingy, had some good breakfast food. that surprised me. the Cons are Needs Updating/ Paint different color too dark walls, spray for a couple of small bugs that I saw in the bathroom. Needs coffee pot, Updated TV, new baseboards. Overall, for the price, it was OK.More</t>
   </si>
   <si>
+    <t>Andrea A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r206554062-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1512,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>krcorbin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r166670856-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1533,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Geoletta D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r165266278-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1326,6 +1554,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Akash_Manoj2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r163331491-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1575,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Jo Anne P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r145263635-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1365,6 +1599,9 @@
     <t>This place was so bad, we couldn't even stay there.  It looked abandoned, with several windows open. The grounds had not been mowed in months.  Weeds 10-12 inches high. No other cars there on a Friday afternoon.  We called the front desk to see if anyone was even inside and the clerk told us (in very poor English) that he didn't care if we came in or not; our credit card would be charged either way.  I did not feel safe bringing my daughter into a place like this, so we continued driving into Dallas in rush hour traffic to find a safer hotel to spend the night.  Horrible, horrible experience.  I will never book a room again from any Wyndham owned establishment.More</t>
   </si>
   <si>
+    <t>MsAries44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r119206426-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1383,6 +1620,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>johndsmiley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r69548640-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1396,6 +1636,9 @@
   </si>
   <si>
     <t>Stopped at this hotel on our cross country road trip. It's right off the Interstate. Continental Breakfast. Free WIFI. Air works fine. Not far from Dallas if you want to stay here instead.</t>
+  </si>
+  <si>
+    <t>kbaybob</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d226040-r20964519-Microtel_Inn_Suites_by_Wyndham_Mesquite_Dallas_at_Highway-Mesquite_Texas.html</t>
@@ -1959,43 +2202,47 @@
       <c r="A2" t="n">
         <v>38542</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>168929</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2019,50 +2266,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38542</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>168930</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2086,41 +2337,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38542</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>168931</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -2139,35 +2394,39 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38542</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>168932</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2175,10 +2434,10 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -2199,51 +2458,52 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38542</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>168933</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>72</v>
       </c>
-      <c r="L6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>68</v>
-      </c>
       <c r="O6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2267,50 +2527,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38542</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>168934</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
         <v>79</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" t="s">
-        <v>74</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -2334,35 +2598,39 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38542</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>168935</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -2370,10 +2638,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -2394,49 +2662,50 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38542</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>168936</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2460,41 +2729,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38542</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>55431</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -2513,35 +2786,39 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38542</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>168937</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -2549,10 +2826,10 @@
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2573,49 +2850,50 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38542</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>168938</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -2639,35 +2917,39 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38542</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>168939</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -2675,10 +2957,10 @@
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2699,36 +2981,37 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38542</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>168940</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -2736,10 +3019,10 @@
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2760,51 +3043,52 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38542</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>168941</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="K15" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2828,50 +3112,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38542</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>168942</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2895,50 +3183,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38542</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>168943</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="J17" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="O17" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2956,50 +3248,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38542</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>20312</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="J18" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3023,35 +3319,39 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38542</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>168944</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -3059,10 +3359,10 @@
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="O19" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -3083,51 +3383,52 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38542</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>168945</v>
+      </c>
+      <c r="C20" t="s">
+        <v>156</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="J20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O20" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3151,48 +3452,52 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38542</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>11170</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O21" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3216,50 +3521,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38542</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>168946</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="J22" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O22" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3283,48 +3592,52 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38542</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>168947</v>
+      </c>
+      <c r="C23" t="s">
+        <v>174</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3340,50 +3653,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38542</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>168948</v>
+      </c>
+      <c r="C24" t="s">
+        <v>178</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J24" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="O24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3405,54 +3722,58 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="X24" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="Y24" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38542</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>168949</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3474,56 +3795,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="X25" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="Y25" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38542</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>168950</v>
+      </c>
+      <c r="C26" t="s">
+        <v>195</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="K26" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="O26" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3545,41 +3870,45 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="X26" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="Y26" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38542</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>168951</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3587,10 +3916,10 @@
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="O27" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3611,36 +3940,37 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38542</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>168952</v>
+      </c>
+      <c r="C28" t="s">
+        <v>208</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -3648,10 +3978,10 @@
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3672,51 +4002,52 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38542</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>168953</v>
+      </c>
+      <c r="C29" t="s">
+        <v>212</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="J29" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
       </c>
       <c r="L29" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="O29" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3738,41 +4069,45 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="X29" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="Y29" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38542</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>168954</v>
+      </c>
+      <c r="C30" t="s">
+        <v>221</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="J30" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
@@ -3780,10 +4115,10 @@
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="O30" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3804,51 +4139,52 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38542</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>168955</v>
+      </c>
+      <c r="C31" t="s">
+        <v>225</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="J31" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="K31" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="L31" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="O31" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3870,56 +4206,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="X31" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="Y31" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38542</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>168956</v>
+      </c>
+      <c r="C32" t="s">
+        <v>234</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="J32" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="K32" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="L32" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3943,50 +4283,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38542</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>168957</v>
+      </c>
+      <c r="C33" t="s">
+        <v>241</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="J33" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="K33" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -4010,50 +4354,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38542</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>168958</v>
+      </c>
+      <c r="C34" t="s">
+        <v>247</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="J34" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="K34" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="O34" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4077,35 +4425,39 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38542</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>168959</v>
+      </c>
+      <c r="C35" t="s">
+        <v>254</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="J35" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -4113,10 +4465,10 @@
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4137,36 +4489,37 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38542</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>168960</v>
+      </c>
+      <c r="C36" t="s">
+        <v>258</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="J36" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -4174,10 +4527,10 @@
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="O36" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4198,51 +4551,52 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38542</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>168961</v>
+      </c>
+      <c r="C37" t="s">
+        <v>262</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="J37" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="K37" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4266,50 +4620,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38542</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>168962</v>
+      </c>
+      <c r="C38" t="s">
+        <v>269</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="J38" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="K38" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="L38" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="O38" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4333,50 +4691,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38542</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>168963</v>
+      </c>
+      <c r="C39" t="s">
+        <v>275</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="J39" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="K39" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="L39" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -4400,50 +4762,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38542</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>168964</v>
+      </c>
+      <c r="C40" t="s">
+        <v>281</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="J40" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="K40" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="L40" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="O40" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -4467,50 +4833,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38542</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>9137</v>
+      </c>
+      <c r="C41" t="s">
+        <v>287</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="J41" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="K41" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="L41" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="O41" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4534,50 +4904,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38542</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>168965</v>
+      </c>
+      <c r="C42" t="s">
+        <v>294</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="J42" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="K42" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="L42" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4601,50 +4975,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38542</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>168942</v>
+      </c>
+      <c r="C43" t="s">
+        <v>137</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="J43" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="K43" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="O43" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4660,56 +5038,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="X43" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="Y43" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38542</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>14380</v>
+      </c>
+      <c r="C44" t="s">
+        <v>309</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="J44" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="O44" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4723,35 +5105,39 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38542</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>168966</v>
+      </c>
+      <c r="C45" t="s">
+        <v>316</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="J45" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -4759,10 +5145,10 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="O45" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4783,51 +5169,52 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38542</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>168967</v>
+      </c>
+      <c r="C46" t="s">
+        <v>320</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="J46" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="K46" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="O46" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4851,41 +5238,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38542</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>168968</v>
+      </c>
+      <c r="C47" t="s">
+        <v>326</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="J47" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="K47" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
@@ -4904,35 +5295,39 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38542</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>168969</v>
+      </c>
+      <c r="C48" t="s">
+        <v>333</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="J48" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s"/>
@@ -4940,10 +5335,10 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="O48" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -4964,51 +5359,52 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
-      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>38542</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>27634</v>
+      </c>
+      <c r="C49" t="s">
+        <v>338</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="J49" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="K49" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="L49" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5032,50 +5428,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>38542</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>168970</v>
+      </c>
+      <c r="C50" t="s">
+        <v>346</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="J50" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="K50" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="L50" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5099,50 +5499,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>38542</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>18747</v>
+      </c>
+      <c r="C51" t="s">
+        <v>352</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="J51" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="K51" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="L51" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="O51" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5166,35 +5570,39 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>38542</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>40787</v>
+      </c>
+      <c r="C52" t="s">
+        <v>359</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="J52" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -5202,10 +5610,10 @@
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="O52" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P52" t="n">
         <v>2</v>
@@ -5224,51 +5632,52 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>38542</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>168971</v>
+      </c>
+      <c r="C53" t="s">
+        <v>363</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="J53" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="K53" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="L53" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="O53" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5288,35 +5697,39 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>38542</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>168972</v>
+      </c>
+      <c r="C54" t="s">
+        <v>370</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="J54" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
@@ -5324,10 +5737,10 @@
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5348,51 +5761,52 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>38542</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>168973</v>
+      </c>
+      <c r="C55" t="s">
+        <v>375</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>323</v>
+        <v>376</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>324</v>
+        <v>377</v>
       </c>
       <c r="J55" t="s">
-        <v>325</v>
+        <v>378</v>
       </c>
       <c r="K55" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="L55" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5416,35 +5830,39 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>38542</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>168974</v>
+      </c>
+      <c r="C56" t="s">
+        <v>381</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="J56" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -5452,10 +5870,10 @@
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="O56" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5468,36 +5886,37 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>38542</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>2143</v>
+      </c>
+      <c r="C57" t="s">
+        <v>386</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>332</v>
+        <v>387</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>333</v>
+        <v>388</v>
       </c>
       <c r="J57" t="s">
-        <v>334</v>
+        <v>389</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -5505,10 +5924,10 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="O57" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -5529,51 +5948,52 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>38542</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>168975</v>
+      </c>
+      <c r="C58" t="s">
+        <v>390</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="J58" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="K58" t="s">
-        <v>338</v>
+        <v>394</v>
       </c>
       <c r="L58" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="O58" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -5597,48 +6017,52 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>38542</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>168976</v>
+      </c>
+      <c r="C59" t="s">
+        <v>398</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="J59" t="s">
-        <v>344</v>
+        <v>401</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="O59" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5662,50 +6086,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>38542</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>168977</v>
+      </c>
+      <c r="C60" t="s">
+        <v>402</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="J60" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="K60" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="L60" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="O60" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -5729,50 +6157,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>38542</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>15270</v>
+      </c>
+      <c r="C61" t="s">
+        <v>408</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="J61" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="K61" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="L61" t="s">
-        <v>354</v>
+        <v>413</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="O61" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -5786,50 +6218,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>354</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>38542</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>168978</v>
+      </c>
+      <c r="C62" t="s">
+        <v>414</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>355</v>
+        <v>415</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>356</v>
+        <v>416</v>
       </c>
       <c r="J62" t="s">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="K62" t="s">
-        <v>358</v>
+        <v>418</v>
       </c>
       <c r="L62" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="O62" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5853,35 +6289,39 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>38542</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>168979</v>
+      </c>
+      <c r="C63" t="s">
+        <v>420</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="J63" t="s">
-        <v>362</v>
+        <v>423</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -5889,10 +6329,10 @@
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -5913,49 +6353,50 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>38542</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>578</v>
+      </c>
+      <c r="C64" t="s">
+        <v>424</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>363</v>
+        <v>425</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>364</v>
+        <v>426</v>
       </c>
       <c r="J64" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="O64" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -5979,35 +6420,39 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>38542</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>168980</v>
+      </c>
+      <c r="C65" t="s">
+        <v>428</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>367</v>
+        <v>430</v>
       </c>
       <c r="J65" t="s">
-        <v>368</v>
+        <v>431</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -6015,10 +6460,10 @@
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>369</v>
+        <v>432</v>
       </c>
       <c r="O65" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6039,36 +6484,37 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>38542</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>168981</v>
+      </c>
+      <c r="C66" t="s">
+        <v>433</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="J66" t="s">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -6076,10 +6522,10 @@
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="O66" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6100,51 +6546,52 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>38542</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>168982</v>
+      </c>
+      <c r="C67" t="s">
+        <v>438</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="J67" t="s">
-        <v>376</v>
+        <v>441</v>
       </c>
       <c r="K67" t="s">
-        <v>377</v>
+        <v>442</v>
       </c>
       <c r="L67" t="s">
-        <v>378</v>
+        <v>443</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="O67" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6158,35 +6605,39 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>379</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>38542</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>35773</v>
+      </c>
+      <c r="C68" t="s">
+        <v>445</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="J68" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -6194,10 +6645,10 @@
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="O68" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6218,51 +6669,52 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>38542</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>168983</v>
+      </c>
+      <c r="C69" t="s">
+        <v>449</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="J69" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
       <c r="K69" t="s">
-        <v>386</v>
+        <v>453</v>
       </c>
       <c r="L69" t="s">
-        <v>387</v>
+        <v>454</v>
       </c>
       <c r="M69" t="n">
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="O69" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6286,35 +6738,39 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>387</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>38542</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>168984</v>
+      </c>
+      <c r="C70" t="s">
+        <v>455</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
       <c r="J70" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6322,10 +6778,10 @@
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="O70" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="P70" t="n">
         <v>2</v>
@@ -6346,51 +6802,52 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>38542</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>7997</v>
+      </c>
+      <c r="C71" t="s">
+        <v>459</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>392</v>
+        <v>461</v>
       </c>
       <c r="J71" t="s">
-        <v>393</v>
+        <v>462</v>
       </c>
       <c r="K71" t="s">
-        <v>394</v>
+        <v>463</v>
       </c>
       <c r="L71" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="O71" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6410,35 +6867,39 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>38542</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>168985</v>
+      </c>
+      <c r="C72" t="s">
+        <v>466</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>397</v>
+        <v>467</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>398</v>
+        <v>468</v>
       </c>
       <c r="J72" t="s">
-        <v>399</v>
+        <v>469</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s"/>
@@ -6446,10 +6907,10 @@
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="O72" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -6470,51 +6931,52 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
-      <c r="Y72" t="s"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>38542</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>168986</v>
+      </c>
+      <c r="C73" t="s">
+        <v>471</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>401</v>
+        <v>472</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>402</v>
+        <v>473</v>
       </c>
       <c r="J73" t="s">
-        <v>403</v>
+        <v>474</v>
       </c>
       <c r="K73" t="s">
-        <v>404</v>
+        <v>475</v>
       </c>
       <c r="L73" t="s">
-        <v>405</v>
+        <v>476</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>406</v>
+        <v>477</v>
       </c>
       <c r="O73" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -6538,50 +7000,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>405</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>38542</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>168987</v>
+      </c>
+      <c r="C74" t="s">
+        <v>478</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>407</v>
+        <v>479</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>408</v>
+        <v>480</v>
       </c>
       <c r="J74" t="s">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="K74" t="s">
-        <v>410</v>
+        <v>482</v>
       </c>
       <c r="L74" t="s">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>412</v>
+        <v>484</v>
       </c>
       <c r="O74" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P74" t="n">
         <v>2</v>
@@ -6605,50 +7071,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>411</v>
+        <v>483</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>38542</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>168988</v>
+      </c>
+      <c r="C75" t="s">
+        <v>485</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>413</v>
+        <v>486</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>414</v>
+        <v>487</v>
       </c>
       <c r="J75" t="s">
-        <v>415</v>
+        <v>488</v>
       </c>
       <c r="K75" t="s">
-        <v>416</v>
+        <v>489</v>
       </c>
       <c r="L75" t="s">
-        <v>417</v>
+        <v>490</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>418</v>
+        <v>491</v>
       </c>
       <c r="O75" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -6672,35 +7142,39 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>419</v>
+        <v>492</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>38542</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>2905</v>
+      </c>
+      <c r="C76" t="s">
+        <v>493</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="J76" t="s">
-        <v>422</v>
+        <v>496</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -6708,10 +7182,10 @@
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="O76" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -6732,51 +7206,52 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>38542</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>168989</v>
+      </c>
+      <c r="C77" t="s">
+        <v>498</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>424</v>
+        <v>499</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="J77" t="s">
-        <v>426</v>
+        <v>501</v>
       </c>
       <c r="K77" t="s">
-        <v>427</v>
+        <v>502</v>
       </c>
       <c r="L77" t="s">
-        <v>428</v>
+        <v>503</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>429</v>
+        <v>504</v>
       </c>
       <c r="O77" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -6800,50 +7275,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>428</v>
+        <v>503</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>38542</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>168990</v>
+      </c>
+      <c r="C78" t="s">
+        <v>505</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>431</v>
+        <v>507</v>
       </c>
       <c r="J78" t="s">
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="K78" t="s">
-        <v>433</v>
+        <v>509</v>
       </c>
       <c r="L78" t="s">
-        <v>434</v>
+        <v>510</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>435</v>
+        <v>511</v>
       </c>
       <c r="O78" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -6867,50 +7346,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>434</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>38542</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>168991</v>
+      </c>
+      <c r="C79" t="s">
+        <v>512</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>436</v>
+        <v>513</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
       <c r="J79" t="s">
-        <v>438</v>
+        <v>515</v>
       </c>
       <c r="K79" t="s">
-        <v>439</v>
+        <v>516</v>
       </c>
       <c r="L79" t="s">
-        <v>440</v>
+        <v>517</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>441</v>
+        <v>518</v>
       </c>
       <c r="O79" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -6934,50 +7417,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>440</v>
+        <v>517</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>38542</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>168992</v>
+      </c>
+      <c r="C80" t="s">
+        <v>519</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>442</v>
+        <v>520</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>443</v>
+        <v>521</v>
       </c>
       <c r="J80" t="s">
-        <v>444</v>
+        <v>522</v>
       </c>
       <c r="K80" t="s">
-        <v>445</v>
+        <v>523</v>
       </c>
       <c r="L80" t="s">
-        <v>446</v>
+        <v>524</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="O80" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
@@ -7001,50 +7488,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>448</v>
+        <v>526</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>38542</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>168993</v>
+      </c>
+      <c r="C81" t="s">
+        <v>527</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>449</v>
+        <v>528</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="J81" t="s">
-        <v>451</v>
+        <v>530</v>
       </c>
       <c r="K81" t="s">
-        <v>452</v>
+        <v>531</v>
       </c>
       <c r="L81" t="s">
-        <v>453</v>
+        <v>532</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>454</v>
+        <v>533</v>
       </c>
       <c r="O81" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P81" t="n">
         <v>2</v>
@@ -7068,41 +7559,45 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>453</v>
+        <v>532</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>38542</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>168994</v>
+      </c>
+      <c r="C82" t="s">
+        <v>534</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>455</v>
+        <v>535</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>456</v>
+        <v>536</v>
       </c>
       <c r="J82" t="s">
-        <v>457</v>
+        <v>537</v>
       </c>
       <c r="K82" t="s">
-        <v>458</v>
+        <v>538</v>
       </c>
       <c r="L82" t="s">
-        <v>459</v>
+        <v>539</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
@@ -7131,50 +7626,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>459</v>
+        <v>539</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>38542</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>168995</v>
+      </c>
+      <c r="C83" t="s">
+        <v>540</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>460</v>
+        <v>541</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>461</v>
+        <v>542</v>
       </c>
       <c r="J83" t="s">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="K83" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="L83" t="s">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>465</v>
+        <v>546</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7198,7 +7697,7 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>466</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
